--- a/data/trans_camb/P1404-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1404-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>5.191418120632842</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>7.293866584319843</v>
+        <v>7.293866584319848</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>5.736520724751333</v>
@@ -664,7 +664,7 @@
         <v>5.471738106287423</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>7.803703475718758</v>
+        <v>7.803703475718761</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.782713912315188</v>
+        <v>3.134742841397814</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.486584821175686</v>
+        <v>2.834896967887977</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.332544249093591</v>
+        <v>5.198459490190855</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.546051010942109</v>
+        <v>1.378062753385507</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.643462450649196</v>
+        <v>1.82572485947231</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>4.193833490107537</v>
+        <v>4.298509760805367</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.292769126565312</v>
+        <v>3.374428912423702</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>3.0766980632917</v>
+        <v>3.327049597277248</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>5.724222266900575</v>
+        <v>5.512077032563818</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.459794662660718</v>
+        <v>9.659823193648469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.970862885537912</v>
+        <v>9.020719846004145</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.5910712291808</v>
+        <v>11.39951258733754</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.929135515580278</v>
+        <v>8.636410440023162</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>9.123160781369826</v>
+        <v>8.584955016133678</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.32061483506194</v>
+        <v>10.25122751607146</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.12064138869874</v>
+        <v>8.131258045264135</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.750877480825125</v>
+        <v>7.890908370783187</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.00861045133406</v>
+        <v>9.986621467744879</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5201752551364469</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7308386308454912</v>
+        <v>0.7308386308454917</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.688905678014307</v>
@@ -769,7 +769,7 @@
         <v>0.6571076146843449</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.9371561425319658</v>
+        <v>0.9371561425319661</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.3457242922918068</v>
+        <v>0.3698190523349855</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2966754471066607</v>
+        <v>0.3423292740350964</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6401839766059091</v>
+        <v>0.6111513283033547</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.132350823743254</v>
+        <v>0.1159808563020845</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1202281579512289</v>
+        <v>0.1572934123097989</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3464457946906448</v>
+        <v>0.3548666473576407</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3393443963938521</v>
+        <v>0.3478718124015254</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3439093677352118</v>
+        <v>0.3600064455525952</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.6013036623614743</v>
+        <v>0.5596491667639341</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.756518358984316</v>
+        <v>1.791718057736149</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.664236722403407</v>
+        <v>1.615599647799778</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.200369266854447</v>
+        <v>2.083502915193552</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.059947478444068</v>
+        <v>1.044626932148254</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.023019892584559</v>
+        <v>1.016410459732813</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.260545359677421</v>
+        <v>1.220380153870529</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.09794819635411</v>
+        <v>1.136692108038885</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.081632950246631</v>
+        <v>1.10640588803557</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.385551374270154</v>
+        <v>1.379434064395445</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.059714463049554</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.949500544456946</v>
+        <v>4.949500544456943</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.629179116931879</v>
@@ -869,7 +869,7 @@
         <v>3.278893466311314</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.200741586829213</v>
+        <v>4.20074158682921</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.496967317072098</v>
@@ -878,7 +878,7 @@
         <v>3.178458771762431</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>4.579625986748344</v>
+        <v>4.579625986748346</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.7856245938762274</v>
+        <v>-0.6973650418877437</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2856610503732059</v>
+        <v>0.3586144009869346</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.105380471357572</v>
+        <v>2.236369259636248</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.4519465930559043</v>
+        <v>-0.4517793144138428</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2749422116107759</v>
+        <v>0.4908545064071801</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.437611562118634</v>
+        <v>1.671113970369376</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3549908681178963</v>
+        <v>0.3659707213147967</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9362681447203859</v>
+        <v>1.043100088529572</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.611076679799103</v>
+        <v>2.529822651670494</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.341544828436442</v>
+        <v>5.108989334690911</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.952911945286631</v>
+        <v>5.971026526545089</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.737430454291911</v>
+        <v>7.937284999286079</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.244781058433745</v>
+        <v>5.852296359705149</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.267160699105013</v>
+        <v>6.114373447807946</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.969472427927981</v>
+        <v>6.970735674931851</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.558044082618824</v>
+        <v>4.71225170391509</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.273444306054178</v>
+        <v>5.333084936634258</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.445724063714303</v>
+        <v>6.489224860133673</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3424956084732135</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.554032809624572</v>
+        <v>0.5540328096245717</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.2303150929250244</v>
@@ -974,7 +974,7 @@
         <v>0.2872298233777246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3679833689131085</v>
+        <v>0.3679833689131082</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.2453100984976571</v>
@@ -983,7 +983,7 @@
         <v>0.3122620104159219</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.449917183220876</v>
+        <v>0.4499171832208763</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07421613428438033</v>
+        <v>-0.07295604118254433</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01832411308933123</v>
+        <v>0.03568072044713436</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.1910037112312801</v>
+        <v>0.2099317258571347</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.03537500829401871</v>
+        <v>-0.03408691800278728</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.0190538435193408</v>
+        <v>0.03738951467742775</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09563058104772326</v>
+        <v>0.1239633323260239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03858611077316472</v>
+        <v>0.0330885900025683</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.07953717177453047</v>
+        <v>0.09045238743242509</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2320419042312727</v>
+        <v>0.2233006766521802</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7027242157659876</v>
+        <v>0.6777713983157869</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.7981075573374785</v>
+        <v>0.8374396620693622</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.037226663279982</v>
+        <v>1.103496474911277</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5239431051827539</v>
+        <v>0.6037171959362764</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6187390390925626</v>
+        <v>0.6037515990995406</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7157366973253386</v>
+        <v>0.7367756745110433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.5171199488515111</v>
+        <v>0.5192597137182221</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5792910217329553</v>
+        <v>0.6005517119738969</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7021802861989468</v>
+        <v>0.7168390503480173</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>2.689084450861776</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>5.245511632743371</v>
+        <v>5.245511632743377</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.5440459310643249</v>
+        <v>-0.3149202246864923</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.834495904461339</v>
+        <v>1.712736732972934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.774821737197376</v>
+        <v>4.902522782397698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.611861979091996</v>
+        <v>-1.165579258026466</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-3.061877479548929</v>
+        <v>-2.970825356243741</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6326311774009231</v>
+        <v>-0.6893914995760317</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.16560633851684</v>
+        <v>-0.01487310542499109</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.593723511036814</v>
+        <v>0.3300602744429152</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.0618742955273</v>
+        <v>2.990033753672487</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.71136134244856</v>
+        <v>6.300294295475238</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.015748771812808</v>
+        <v>8.149197314054208</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.20705196251708</v>
+        <v>11.62487793978199</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.400941819401101</v>
+        <v>5.523795149949233</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.895932977763878</v>
+        <v>4.048466099973809</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.592746386914599</v>
+        <v>5.43213506257894</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.791151561863733</v>
+        <v>4.783514697897976</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.959687513248316</v>
+        <v>4.955243503727976</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.478340862738141</v>
+        <v>7.455434709451225</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.2948590031902011</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5751720927759059</v>
+        <v>0.5751720927759065</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07162826023052632</v>
+        <v>-0.03964917877581836</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2090759926237136</v>
+        <v>0.1843493438229418</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5214248874769762</v>
+        <v>0.5761869382515291</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1369508482654752</v>
+        <v>-0.09034139265370518</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2463579220935858</v>
+        <v>-0.2426350138822656</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.0574037730537583</v>
+        <v>-0.05927653429974114</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01809646686496724</v>
+        <v>-0.006406033973215942</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05332808916581695</v>
+        <v>0.0286973385622602</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2954151911105383</v>
+        <v>0.2902770990397323</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9502898660110199</v>
+        <v>1.089435802923879</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.378027748788479</v>
+        <v>1.430540673714193</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.879083958303299</v>
+        <v>2.025734223475217</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5710009081303468</v>
+        <v>0.6043020325170592</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4324811885615722</v>
+        <v>0.4498509833395259</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6147892263209646</v>
+        <v>0.6038892636111339</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6127908685604928</v>
+        <v>0.5898575780023019</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6379163186333004</v>
+        <v>0.6144541109537857</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9337616043685875</v>
+        <v>0.9573057374863467</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.14032939368094</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5.508010795505132</v>
+        <v>5.508010795505134</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.32822071060508</v>
@@ -1306,7 +1306,7 @@
         <v>2.109456671469012</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>7.15853984615507</v>
+        <v>7.158539846155064</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2745639738326169</v>
+        <v>0.2126844078171368</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.33337763392446</v>
+        <v>-1.350692341796954</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.645236462422146</v>
+        <v>2.654291622692345</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.564734546047082</v>
+        <v>1.625793937703376</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1419031412465179</v>
+        <v>0.09710257661106603</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>6.169179616328817</v>
+        <v>6.1302930238825</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.664208204729603</v>
+        <v>1.949516064554401</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01500477082080507</v>
+        <v>0.2551508658391923</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.347137178995847</v>
+        <v>5.216883477164981</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.523565193825967</v>
+        <v>5.556878282273359</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.506467254065496</v>
+        <v>3.643795733086873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.804856763116449</v>
+        <v>7.771520248458535</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.960346340598417</v>
+        <v>7.232075915727701</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>5.825319157491203</v>
+        <v>6.114716278718124</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.45782467904313</v>
+        <v>11.0628358819545</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.624793919674123</v>
+        <v>5.660716177927572</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.851695974188173</v>
+        <v>4.171933225000921</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.94695967184172</v>
+        <v>8.997908921059315</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.1390119265537997</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6714544029166095</v>
+        <v>0.6714544029166098</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.474311256646583</v>
@@ -1411,7 +1411,7 @@
         <v>0.2428395613287092</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8240874057791325</v>
+        <v>0.824087405779132</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.01984302473724451</v>
+        <v>0.01652820499328803</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.145524236486768</v>
+        <v>-0.1468109439820643</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2644622461091412</v>
+        <v>0.29958612791547</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1400729296807962</v>
+        <v>0.1559768278606169</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.01529893579162246</v>
+        <v>0.01180639199625943</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5913216797367155</v>
+        <v>0.573413202840558</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1748709947268073</v>
+        <v>0.2036163432080165</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.001228131154737005</v>
+        <v>0.02836026233329781</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5370410980739014</v>
+        <v>0.5377048132861122</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7808104675089912</v>
+        <v>0.7783096759896266</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4845648674703217</v>
+        <v>0.51432060580581</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.098368017867981</v>
+        <v>1.131796627578686</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8684274491171831</v>
+        <v>0.9124799505861132</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7828942010455352</v>
+        <v>0.7466332735769222</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.542237650700493</v>
+        <v>1.461212842581827</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.71146086005669</v>
+        <v>0.7229002099711843</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.4961722947284087</v>
+        <v>0.5334881525017413</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.146765080561126</v>
+        <v>1.147105361430015</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>3.527888238526517</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.449248505440511</v>
+        <v>6.449248505440513</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.502978372962248</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.025034898960658</v>
+        <v>1.83825212664059</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>2.097277246414546</v>
+        <v>2.19592658289049</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5.131082885736712</v>
+        <v>5.037114406416039</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.879805846965697</v>
+        <v>1.849819712266886</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.219304442811876</v>
+        <v>1.483900020756443</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.32112571581497</v>
+        <v>4.431430817758386</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.409715861100225</v>
+        <v>2.374736796082835</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.142285365635177</v>
+        <v>2.1695665789715</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>5.116171311693133</v>
+        <v>5.017245611268033</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.784929529177544</v>
+        <v>4.878533221667569</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.025064570646822</v>
+        <v>4.886434839575447</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.991386289744631</v>
+        <v>7.982868839950559</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.991808947447889</v>
+        <v>5.046501563640861</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.517929030641398</v>
+        <v>4.583459973549399</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.045403446446453</v>
+        <v>7.248390207161136</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.600870022116131</v>
+        <v>4.617671980667517</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>4.208290101251517</v>
+        <v>4.411143339920518</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>7.088795052619165</v>
+        <v>7.123957867156443</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.4450812414357603</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.8136424220536174</v>
+        <v>0.8136424220536177</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.3399738799097463</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2302279701789126</v>
+        <v>0.2207342768563257</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.2454064072105929</v>
+        <v>0.2560012817181573</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5841736527528759</v>
+        <v>0.5829434881450227</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1648954758087763</v>
+        <v>0.1630295324026122</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1075584532339206</v>
+        <v>0.1332364344880234</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3878870763138737</v>
+        <v>0.4036103541767431</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2482718994144983</v>
+        <v>0.246701540867134</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2229445789335069</v>
+        <v>0.2241175415252719</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5232297335759499</v>
+        <v>0.5166302136161338</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6556130539765708</v>
+        <v>0.6750890310179479</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6757942749872432</v>
+        <v>0.6631878319837459</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.098956205396936</v>
+        <v>1.089386992514123</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5112211434093709</v>
+        <v>0.528456534080733</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4692767988557716</v>
+        <v>0.4741081818731293</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.746783199253703</v>
+        <v>0.7864170511941259</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.5356905035859618</v>
+        <v>0.5391328046642765</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4894156158173613</v>
+        <v>0.5120671409405796</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8266493269136819</v>
+        <v>0.8246262975919852</v>
       </c>
     </row>
     <row r="34">
